--- a/TestData/Exceldata.xlsx
+++ b/TestData/Exceldata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\eclipse-workspace\AutomationExercise\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E300823D-EA73-42E2-BBBD-81CF8717B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CD2379-FD4A-4DDD-B8E2-FB229F575F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>email</t>
   </si>
@@ -50,12 +50,54 @@
   <si>
     <t>Mayank1234</t>
   </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Mobilenumber</t>
+  </si>
+  <si>
+    <t>Ishan</t>
+  </si>
+  <si>
+    <t>Dutta</t>
+  </si>
+  <si>
+    <t>Imambada</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Mayank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +115,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF2A00FF"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
     </font>
@@ -97,9 +145,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,32 +429,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <v>226016</v>
+      </c>
+      <c r="J2">
+        <v>8076190280</v>
       </c>
     </row>
   </sheetData>
